--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,94 +43,91 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
@@ -139,82 +136,67 @@
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>real</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>watching</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -575,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -744,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,31 +744,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>0.88</v>
+      </c>
+      <c r="L5">
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <v>44</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5">
-        <v>0.9</v>
-      </c>
-      <c r="L5">
-        <v>27</v>
-      </c>
-      <c r="M5">
-        <v>27</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,16 +797,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.7192982456140351</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9242424242424242</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.7066666666666667</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8125</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.6551724137931034</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.6166666666666667</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,7 +1026,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1062,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,38 +1076,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.725</v>
       </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L12">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1136,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.725</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.5555555555555556</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.4545454545454545</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6014492753623188</v>
+        <v>0.625</v>
       </c>
       <c r="C15">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5882352941176471</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>0.2711864406779661</v>
@@ -1394,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.574468085106383</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.2513661202185792</v>
+        <v>0.2668488160291439</v>
       </c>
       <c r="L18">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M18">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5652173913043478</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.1851851851851852</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,38 +1476,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5625</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L20">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>9</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>0.1692307692307692</v>
-      </c>
-      <c r="L20">
-        <v>11</v>
-      </c>
-      <c r="M20">
-        <v>11</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1536,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1562,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.1690140845070423</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1586,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,13 +1576,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5142857142857142</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1612,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.1639344262295082</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,7 +1626,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -1662,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.136986301369863</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>63</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1694,7 +1676,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4285714285714285</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -1712,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.1294117647058824</v>
+        <v>0.04240282685512368</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1736,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>74</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1744,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1762,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.1263157894736842</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1786,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>83</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1794,187 +1776,115 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3333333333333333</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>0.02560819462227913</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K26">
-        <v>0.06569343065693431</v>
-      </c>
-      <c r="L26">
-        <v>9</v>
-      </c>
-      <c r="M26">
-        <v>9</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>19</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="K28">
+        <v>0.02560240963855422</v>
+      </c>
+      <c r="L28">
+        <v>17</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K27">
-        <v>0.04629629629629629</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>25</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>66</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28">
-        <v>0.04398826979472141</v>
-      </c>
-      <c r="L28">
-        <v>15</v>
-      </c>
-      <c r="M28">
-        <v>15</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.0436241610738255</v>
-      </c>
-      <c r="C29">
-        <v>13</v>
-      </c>
-      <c r="D29">
-        <v>14</v>
-      </c>
-      <c r="E29">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F29">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>285</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K29">
-        <v>0.03886925795053003</v>
+        <v>0.02361751152073733</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1986,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>272</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.03246753246753246</v>
+        <v>0.0211038961038961</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2012,111 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31">
-        <v>0.03162650602409638</v>
-      </c>
-      <c r="L31">
-        <v>21</v>
-      </c>
-      <c r="M31">
-        <v>21</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="L32">
-        <v>9</v>
-      </c>
-      <c r="M32">
-        <v>9</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K33">
-        <v>0.02649769585253456</v>
-      </c>
-      <c r="L33">
-        <v>46</v>
-      </c>
-      <c r="M33">
-        <v>46</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34">
-        <v>0.02560819462227913</v>
-      </c>
-      <c r="L34">
-        <v>20</v>
-      </c>
-      <c r="M34">
-        <v>20</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>761</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
